--- a/asset/Documents/Exastro-ITA_User_Instruction_Manual_Ansible-driver_Attachment_Ansible_usage_guidelines_ITA_addition_rules.xlsx
+++ b/asset/Documents/Exastro-ITA_User_Instruction_Manual_Ansible-driver_Attachment_Ansible_usage_guidelines_ITA_addition_rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12180" tabRatio="625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00.表紙" sheetId="9" r:id="rId1"/>
@@ -204,14 +204,6 @@
     <t xml:space="preserve">Copyright © NEC Corporation 2019. All rights reserved. </t>
   </si>
   <si>
-    <t>User instruction manual
-Ansible-driver
-Attachment　Ansible usage guidelines
-ITA additon rules
-－Version 1.3－</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Disclaimer</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3302,6 +3294,13 @@
       <t>:half-width space</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User instruction manual
+Ansible-driver
+Attachment　Ansible usage guidelines
+ITA additon rules
+－Version 1.4－</t>
   </si>
 </sst>
 </file>
@@ -4086,6 +4085,9 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4176,9 +4178,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4214,7 +4213,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="C:\Users\000001A00AKC2\AppData\Local\Microsoft\Windows\INetCache\Content.Word\Exastro_mark+type_1.png"/>
+        <xdr:cNvPr id="2" name="図 1" descr="C:\Users\000001A00AKC2\AppData\Local\Microsoft\Windows\INetCache\Content.Word\Exastro_mark+type_1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4266,12 +4271,18 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 2"/>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="411248" y="1663850"/>
+          <a:off x="402965" y="1663850"/>
           <a:ext cx="4327401" cy="1358111"/>
           <a:chOff x="406523" y="575464"/>
           <a:chExt cx="4327401" cy="1358111"/>
@@ -4279,7 +4290,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="グループ化 3"/>
+          <xdr:cNvPr id="4" name="グループ化 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4292,7 +4309,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+            <xdr:cNvPr id="7" name="正方形/長方形 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4381,7 +4404,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="左中かっこ 7"/>
+            <xdr:cNvPr id="8" name="左中かっこ 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4427,7 +4456,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="左中かっこ 8"/>
+            <xdr:cNvPr id="9" name="左中かっこ 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4476,7 +4511,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="左中かっこ 9"/>
+            <xdr:cNvPr id="10" name="左中かっこ 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4522,7 +4563,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+            <xdr:cNvPr id="11" name="正方形/長方形 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4579,7 +4626,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+            <xdr:cNvPr id="12" name="正方形/長方形 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4636,7 +4689,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="左中かっこ 12"/>
+            <xdr:cNvPr id="13" name="左中かっこ 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4682,7 +4741,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+            <xdr:cNvPr id="14" name="正方形/長方形 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4737,7 +4802,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+            <xdr:cNvPr id="15" name="正方形/長方形 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4784,7 +4855,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="左中かっこ 4"/>
+          <xdr:cNvPr id="5" name="左中かっこ 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4830,7 +4907,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4903,12 +4986,18 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="504258" y="5775047"/>
+          <a:off x="495975" y="5775047"/>
           <a:ext cx="4327401" cy="1267239"/>
           <a:chOff x="463673" y="3053047"/>
           <a:chExt cx="4327401" cy="1337978"/>
@@ -4916,7 +5005,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="17" name="グループ化 16"/>
+          <xdr:cNvPr id="17" name="グループ化 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4929,7 +5024,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+            <xdr:cNvPr id="20" name="正方形/長方形 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5018,7 +5119,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="左中かっこ 20"/>
+            <xdr:cNvPr id="21" name="左中かっこ 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5064,7 +5171,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="左中かっこ 21"/>
+            <xdr:cNvPr id="22" name="左中かっこ 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5113,7 +5226,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="左中かっこ 22"/>
+            <xdr:cNvPr id="23" name="左中かっこ 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5159,7 +5278,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+            <xdr:cNvPr id="24" name="正方形/長方形 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5216,7 +5341,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+            <xdr:cNvPr id="25" name="正方形/長方形 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5273,7 +5404,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="左中かっこ 25"/>
+            <xdr:cNvPr id="26" name="左中かっこ 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5319,7 +5456,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+            <xdr:cNvPr id="27" name="正方形/長方形 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5387,7 +5530,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+            <xdr:cNvPr id="28" name="正方形/長方形 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5440,7 +5589,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="左中かっこ 17"/>
+          <xdr:cNvPr id="18" name="左中かっこ 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5486,7 +5641,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5567,7 +5728,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5622,7 +5789,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5682,12 +5855,18 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="125" name="グループ化 124"/>
+        <xdr:cNvPr id="125" name="グループ化 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="440635" y="13053392"/>
+          <a:off x="432352" y="13053392"/>
           <a:ext cx="3311387" cy="1169387"/>
           <a:chOff x="2019299" y="1606259"/>
           <a:chExt cx="3311387" cy="1268674"/>
@@ -5695,7 +5874,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="126" name="テキスト ボックス 125"/>
+          <xdr:cNvPr id="126" name="テキスト ボックス 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5741,7 +5926,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="テキスト ボックス 126"/>
+          <xdr:cNvPr id="127" name="テキスト ボックス 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5797,7 +5988,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="128" name="テキスト ボックス 127"/>
+          <xdr:cNvPr id="128" name="テキスト ボックス 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5843,7 +6040,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="129" name="テキスト ボックス 128"/>
+          <xdr:cNvPr id="129" name="テキスト ボックス 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5893,7 +6096,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="130" name="テキスト ボックス 129"/>
+          <xdr:cNvPr id="130" name="テキスト ボックス 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5944,7 +6153,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="131" name="右中かっこ 130"/>
+          <xdr:cNvPr id="131" name="右中かっこ 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5986,7 +6201,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="132" name="右中かっこ 131"/>
+          <xdr:cNvPr id="132" name="右中かっこ 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6028,7 +6249,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="133" name="右中かっこ 132"/>
+          <xdr:cNvPr id="133" name="右中かっこ 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6070,7 +6297,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="134" name="右中かっこ 133"/>
+          <xdr:cNvPr id="134" name="右中かっこ 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6112,7 +6345,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="135" name="テキスト ボックス 134"/>
+          <xdr:cNvPr id="135" name="テキスト ボックス 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6168,7 +6407,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="136" name="右中かっこ 135"/>
+          <xdr:cNvPr id="136" name="右中かっこ 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6226,12 +6471,18 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="83" name="グループ化 82"/>
+        <xdr:cNvPr id="83" name="グループ化 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="409932" y="9243392"/>
+          <a:off x="401649" y="9243392"/>
           <a:ext cx="3308959" cy="1230675"/>
           <a:chOff x="1917838" y="1566724"/>
           <a:chExt cx="3308959" cy="1335166"/>
@@ -6239,7 +6490,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="テキスト ボックス 84"/>
+          <xdr:cNvPr id="85" name="テキスト ボックス 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6285,7 +6542,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="テキスト ボックス 85"/>
+          <xdr:cNvPr id="86" name="テキスト ボックス 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6341,7 +6604,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="テキスト ボックス 86"/>
+          <xdr:cNvPr id="87" name="テキスト ボックス 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6393,7 +6662,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="テキスト ボックス 87"/>
+          <xdr:cNvPr id="88" name="テキスト ボックス 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6439,7 +6714,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="テキスト ボックス 88"/>
+          <xdr:cNvPr id="89" name="テキスト ボックス 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6486,7 +6767,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="右中かっこ 89"/>
+          <xdr:cNvPr id="90" name="右中かっこ 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6528,7 +6815,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="右中かっこ 90"/>
+          <xdr:cNvPr id="91" name="右中かっこ 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6570,7 +6863,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="右中かっこ 91"/>
+          <xdr:cNvPr id="92" name="右中かっこ 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6612,7 +6911,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="右中かっこ 92"/>
+          <xdr:cNvPr id="93" name="右中かっこ 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6654,7 +6959,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
+          <xdr:cNvPr id="94" name="テキスト ボックス 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6710,7 +7021,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="右中かっこ 94"/>
+          <xdr:cNvPr id="95" name="右中かっこ 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6768,7 +7085,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42"/>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6806,7 +7129,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="図 43"/>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6844,7 +7173,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6882,7 +7217,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="図 95"/>
+        <xdr:cNvPr id="96" name="図 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6920,7 +7261,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="図 96"/>
+        <xdr:cNvPr id="97" name="図 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6958,7 +7305,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="図 45"/>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6996,7 +7349,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46"/>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7034,7 +7393,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47"/>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7072,7 +7437,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7132,7 +7503,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 48"/>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7170,7 +7547,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7230,7 +7613,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7268,7 +7657,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7312,7 +7707,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7350,7 +7751,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="図 99"/>
+        <xdr:cNvPr id="100" name="図 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7388,7 +7795,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+        <xdr:cNvPr id="101" name="正方形/長方形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7448,7 +7861,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7486,7 +7905,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49"/>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7523,7 +7948,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50"/>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7844,651 +8275,651 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75:E77"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="A1" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="64"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="64"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="64"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="64"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8508,11 +8939,11 @@
   </sheetPr>
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="134.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -8527,32 +8958,32 @@
     </row>
     <row r="3" spans="1:1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
@@ -8560,27 +8991,27 @@
     </row>
     <row r="10" spans="1:1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
@@ -8588,17 +9019,17 @@
     </row>
     <row r="16" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8729,22 +9160,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.25" style="41" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="41" customWidth="1"/>
     <col min="3" max="3" width="8.125" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.75" style="38" customWidth="1"/>
-    <col min="7" max="7" width="58.75" style="38" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="58.625" style="38" customWidth="1"/>
     <col min="8" max="8" width="19.375" style="37" customWidth="1"/>
     <col min="9" max="9" width="43.625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="76.75" style="40" customWidth="1"/>
+    <col min="10" max="10" width="76.625" style="40" customWidth="1"/>
     <col min="11" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
@@ -8759,7 +9190,7 @@
     </row>
     <row r="2" spans="1:10" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -8770,36 +9201,36 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>134</v>
+      <c r="I3" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="16" t="s">
         <v>31</v>
       </c>
@@ -8809,39 +9240,39 @@
       <c r="E4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>1</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>119</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J5" s="23"/>
     </row>
@@ -8850,10 +9281,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>0</v>
@@ -8866,10 +9297,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J6" s="23"/>
     </row>
@@ -8878,10 +9309,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>0</v>
@@ -8890,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J7" s="23"/>
     </row>
@@ -8908,26 +9339,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="24" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" s="23"/>
     </row>
@@ -8936,31 +9367,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="29" t="s">
         <v>138</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
@@ -8968,13 +9399,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>0</v>
@@ -8984,10 +9415,10 @@
         <v>36</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J10" s="23"/>
     </row>
@@ -8996,31 +9427,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>146</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="306" x14ac:dyDescent="0.15">
@@ -9028,13 +9459,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>0</v>
@@ -9043,13 +9474,13 @@
         <v>34</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J12" s="23"/>
     </row>
@@ -9058,31 +9489,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>148</v>
+      <c r="F13" s="47" t="s">
+        <v>147</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H13" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="93" t="s">
-        <v>150</v>
+      <c r="J13" s="63" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="76.5" x14ac:dyDescent="0.15">
@@ -9090,28 +9521,28 @@
         <v>10</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>57</v>
-      </c>
       <c r="H14" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J14" s="23"/>
     </row>
@@ -9120,28 +9551,28 @@
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" s="23"/>
     </row>
@@ -9187,7 +9618,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" bestFit="1" customWidth="1"/>
@@ -9200,7 +9631,7 @@
     <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35"/>
       <c r="B2" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -9212,7 +9643,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>2</v>
@@ -9221,50 +9652,50 @@
         <v>3</v>
       </c>
       <c r="E3" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="60" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77">
+      <c r="A4" s="78">
         <v>1</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>88</v>
+      <c r="B4" s="78" t="s">
+        <v>87</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="78" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="79"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="80">
+      <c r="A6" s="81">
         <v>2</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>88</v>
+      <c r="B6" s="81" t="s">
+        <v>87</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>7</v>
@@ -9272,31 +9703,31 @@
       <c r="D6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="81" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="77">
+      <c r="A8" s="78">
         <v>3</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>88</v>
+      <c r="B8" s="78" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>7</v>
@@ -9304,31 +9735,31 @@
       <c r="D8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="78" t="s">
-        <v>96</v>
+      <c r="F8" s="79" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="51" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="80">
+      <c r="A10" s="81">
         <v>4</v>
       </c>
-      <c r="B10" s="80" t="s">
-        <v>88</v>
+      <c r="B10" s="81" t="s">
+        <v>87</v>
       </c>
       <c r="C10" s="61" t="s">
         <v>7</v>
@@ -9336,31 +9767,31 @@
       <c r="D10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="81" t="s">
-        <v>97</v>
+      <c r="F10" s="82" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="77">
+      <c r="A12" s="78">
         <v>5</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>7</v>
@@ -9368,17 +9799,17 @@
       <c r="D12" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="78" t="s">
-        <v>98</v>
+      <c r="E12" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="51" t="s">
         <v>7</v>
@@ -9386,15 +9817,15 @@
       <c r="D13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="79"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="80"/>
     </row>
     <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="80">
+      <c r="A14" s="81">
         <v>6</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="61" t="s">
         <v>7</v>
@@ -9402,17 +9833,17 @@
       <c r="D14" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="81" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="80"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="61" t="s">
         <v>7</v>
@@ -9420,15 +9851,15 @@
       <c r="D15" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="82"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="77">
+      <c r="A16" s="78">
         <v>7</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>7</v>
@@ -9436,17 +9867,17 @@
       <c r="D16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="78" t="s">
-        <v>96</v>
+      <c r="F16" s="79" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>7</v>
@@ -9454,15 +9885,15 @@
       <c r="D17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="80">
+      <c r="A18" s="81">
         <v>8</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>7</v>
@@ -9470,17 +9901,17 @@
       <c r="D18" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="81" t="s">
-        <v>99</v>
+      <c r="F18" s="82" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="80"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="61" t="s">
         <v>7</v>
@@ -9488,8 +9919,8 @@
       <c r="D19" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -9532,25 +9963,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -9560,29 +9991,29 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="E3" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="84"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="92"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="42" t="s">
         <v>3</v>
       </c>
@@ -9590,7 +10021,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
@@ -9598,19 +10029,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>15</v>
@@ -9621,22 +10052,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="156.75" x14ac:dyDescent="0.15">
@@ -9644,19 +10075,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="51" t="s">
         <v>15</v>
@@ -9667,19 +10098,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="47" t="s">
         <v>24</v>
@@ -9690,19 +10121,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="54" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>25</v>
@@ -9713,19 +10144,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="54" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="47" t="s">
         <v>26</v>
